--- a/results/mp/logistic/corona/confidence/42/topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,18 +40,15 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -67,94 +64,109 @@
     <t>no</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>save</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
+    <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -512,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,7 +535,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -581,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -599,19 +611,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -623,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -631,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7123287671232876</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -649,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -673,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +717,13 @@
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -723,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -731,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5263157894736842</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -749,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8928571428571429</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -773,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -781,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.455026455026455</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C7">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="D7">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -799,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>103</v>
+        <v>344</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8328981723237598</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L7">
-        <v>319</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>319</v>
+        <v>99</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -823,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -831,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3333333333333333</v>
+        <v>0.28</v>
       </c>
       <c r="C8">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -849,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>344</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8181818181818182</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L8">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="M8">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -873,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -881,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2533333333333334</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -899,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.7948717948717948</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -923,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -931,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1879194630872483</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -949,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>121</v>
+        <v>328</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>306</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>306</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -973,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -981,37 +993,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1222222222222222</v>
+        <v>0.006121134020618557</v>
       </c>
       <c r="C11">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>316</v>
+        <v>3085</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1023,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1034,10 +1046,10 @@
         <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1049,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1057,13 +1069,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1075,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1083,13 +1095,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7746478873239436</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L14">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1101,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1112,10 +1124,10 @@
         <v>0.7692307692307693</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1127,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1135,13 +1147,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7578125</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1153,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1161,13 +1173,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7547169811320755</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1179,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1187,13 +1199,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.74375</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1205,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1213,13 +1225,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.7446808510638298</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1231,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1239,13 +1251,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.7083333333333334</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1265,13 +1277,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6984126984126984</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1283,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1291,13 +1303,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6744186046511628</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1309,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1317,13 +1329,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6235294117647059</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L23">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1335,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>128</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1343,13 +1355,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5851063829787234</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L24">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M24">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1361,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1369,13 +1381,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1387,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1395,13 +1407,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5774058577405857</v>
+        <v>0.6205882352941177</v>
       </c>
       <c r="L26">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="M26">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1413,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>101</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1421,13 +1433,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5525423728813559</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1439,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>132</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1447,13 +1459,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.5384615384615384</v>
+        <v>0.5690376569037657</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1465,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1473,13 +1485,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.5285714285714286</v>
+        <v>0.5457627118644067</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1491,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1499,13 +1511,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4382022471910113</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1517,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1525,13 +1537,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.2602739726027397</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1543,7 +1555,111 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>54</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="L32">
+        <v>34</v>
+      </c>
+      <c r="M32">
+        <v>34</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="L33">
+        <v>20</v>
+      </c>
+      <c r="M33">
+        <v>20</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34">
+        <v>0.449438202247191</v>
+      </c>
+      <c r="L34">
+        <v>40</v>
+      </c>
+      <c r="M34">
+        <v>40</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="L35">
+        <v>22</v>
+      </c>
+      <c r="M35">
+        <v>22</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
